--- a/biology/Botanique/Président_de_Sèze/Président_de_Sèze.xlsx
+++ b/biology/Botanique/Président_de_Sèze/Président_de_Sèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sident_de_S%C3%A8ze</t>
+          <t>Président_de_Sèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Président de Sèze' est un cultivar de rose ancienne obtenu en 1828 par l'obtentrice rouennaise Mme Hébert et issu de Rosa gallica[1]. Il a été baptisé en l'honneur du président de Sèze, avocat de Louis XVI, à son procès de décembre 1792.
+'Président de Sèze' est un cultivar de rose ancienne obtenu en 1828 par l'obtentrice rouennaise Mme Hébert et issu de Rosa gallica. Il a été baptisé en l'honneur du président de Sèze, avocat de Louis XVI, à son procès de décembre 1792.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sident_de_S%C3%A8ze</t>
+          <t>Président_de_Sèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une rose gallique parmi les plus vigoureuses aux grandes fleurs rose-lilas virant au magenta au cœur, à la périphérie plus pâle, très doubles et divisées en quartiers, au parfum moyen à fort[2]. La floraison n'est pas remontante. Le buisson souple et dressé s'élève à 140 cm pour une envergure de 100 à 110 cm[3].
-Il se couvre de cynorrhodons rouges à l'automne[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une rose gallique parmi les plus vigoureuses aux grandes fleurs rose-lilas virant au magenta au cœur, à la périphérie plus pâle, très doubles et divisées en quartiers, au parfum moyen à fort. La floraison n'est pas remontante. Le buisson souple et dressé s'élève à 140 cm pour une envergure de 100 à 110 cm.
+Il se couvre de cynorrhodons rouges à l'automne.
 Ce rosier a besoin d'une exposition ensoleillée. Il nécessite d'être soigné préventivement contre la maladie des taches noires. On peut admirer cette variété à la roseraie des roses de Normandie, près de Rouen, ou à l'Europa-Rosarium de Sangerhausen.
 			'Président de Sèze' à Sangerhausen
 			'Président de Sèze' à Sangerhausen
